--- a/datasets/data/perguntas_respostas_avaliacoes_filmes.xlsx
+++ b/datasets/data/perguntas_respostas_avaliacoes_filmes.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Pergunta</t>
   </si>
@@ -23,9 +23,6 @@
   </si>
   <si>
     <t>Qual é o NPS geral da plataforma?</t>
-  </si>
-  <si>
-    <t>((Promotores - Detratores) / Total de Avaliações) * 100 = 20%</t>
   </si>
   <si>
     <t>Quantos promotores existem no conjunto de dados?</t>
@@ -62,8 +59,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="#,##0%"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -78,6 +77,12 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -87,7 +92,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -110,16 +115,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -433,8 +448,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="3" width="53.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="3" width="59.57642857142857" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="4" width="53.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="4" width="59.57642857142857" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
@@ -449,48 +464,48 @@
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>3</v>
+      <c r="B2" s="3">
+        <v>0.2</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
       <c r="A3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>4</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
       <c r="A4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>6</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>7</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
       <c r="A5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>8</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>9</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
       <c r="A6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>11</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
       <c r="A7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>
